--- a/panels_genes_comp_2017-05-23_to_2017-07-10.xlsx
+++ b/panels_genes_comp_2017-05-23_to_2017-07-10.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="New v1 panels" sheetId="1" r:id="rId1"/>
-    <sheet name="New v0 panels" sheetId="2" r:id="rId2"/>
-    <sheet name="Retired panels" sheetId="3" r:id="rId3"/>
-    <sheet name="Promoted Panels" sheetId="4" r:id="rId4"/>
-    <sheet name="Updated v0 Panels" sheetId="5" r:id="rId5"/>
-    <sheet name="Updated v1 Panels" sheetId="6" r:id="rId6"/>
-    <sheet name="Name Changed Panels" sheetId="7" r:id="rId7"/>
-    <sheet name="New genes" sheetId="8" r:id="rId8"/>
-    <sheet name="Retired genes" sheetId="9" r:id="rId9"/>
-    <sheet name="Promoted Genes" sheetId="10" r:id="rId10"/>
-    <sheet name="Demoted genes" sheetId="11" r:id="rId11"/>
-    <sheet name="MOI changed" sheetId="12" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New v1 panels" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New v0 panels" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Retired panels" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Promoted Panels" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Updated v0 Panels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Updated v1 Panels" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Name Changed Panels" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New genes" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Retired genes" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Promoted Genes" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demoted genes" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOI changed" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>Panel Name</t>
   </si>
@@ -36,465 +36,465 @@
     <t>Version_Num</t>
   </si>
   <si>
+    <t>Renal tract calcification (or Nephrolithiasis/nephrocalcinosis)</t>
+  </si>
+  <si>
+    <t>553f94d5bb5a1616e5ed45a5</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Pulmonary arterial hypertension</t>
+  </si>
+  <si>
+    <t>58c7f8a78f62033482c42716</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>Childhood solid tumours</t>
   </si>
   <si>
-    <t>Pulmonary arterial hypertension</t>
-  </si>
-  <si>
-    <t>Renal tract calcification (or Nephrolithiasis/nephrocalcinosis)</t>
-  </si>
-  <si>
     <t>595cd7cc8f62036352471ea1</t>
   </si>
   <si>
-    <t>58c7f8a78f62033482c42716</t>
-  </si>
-  <si>
-    <t>553f94d5bb5a1616e5ed45a5</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.9</t>
+    <t>Severe multi-system atopic disease with high IgE</t>
+  </si>
+  <si>
+    <t>553f95d0bb5a1616e5ed45c1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Familial Hirschsprung Disease</t>
+  </si>
+  <si>
+    <t>58c7f5008f620328d77ce70f</t>
+  </si>
+  <si>
+    <t>0.60</t>
   </si>
   <si>
     <t>Adult solid tumours</t>
   </si>
   <si>
-    <t>Familial Hirschsprung Disease</t>
-  </si>
-  <si>
-    <t>Severe multi-system atopic disease with high IgE</t>
-  </si>
-  <si>
     <t>595ce30f8f62036352471f39</t>
   </si>
   <si>
-    <t>58c7f5008f620328d77ce70f</t>
-  </si>
-  <si>
-    <t>553f95d0bb5a1616e5ed45c1</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
     <t>Panel_Name</t>
   </si>
   <si>
+    <t>Renal tubular acidosis</t>
+  </si>
+  <si>
+    <t>553f94d5bb5a1616e5ed45a4</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
     <t>Early onset dementia (encompassing fronto-temporal dementia and prion disease)</t>
   </si>
   <si>
+    <t>55b6173522c1fc05fc7a1855</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
     <t>Familial Hirschprungs Disease</t>
   </si>
   <si>
-    <t>Renal tubular acidosis</t>
-  </si>
-  <si>
-    <t>55b6173522c1fc05fc7a1855</t>
-  </si>
-  <si>
-    <t>553f94d5bb5a1616e5ed45a4</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>Prev_Version_Num</t>
   </si>
   <si>
     <t>Curr_Version_Num</t>
   </si>
   <si>
+    <t>Multiple endocrine tumours</t>
+  </si>
+  <si>
+    <t>553f94b4bb5a1616e5ed4595</t>
+  </si>
+  <si>
+    <t>Non-CF bronchiectasis</t>
+  </si>
+  <si>
+    <t>553f94cabb5a1616e5ed45a2</t>
+  </si>
+  <si>
+    <t>VACTERL-like phenotypes</t>
+  </si>
+  <si>
+    <t>553f9598bb5a1616e5ed45ae</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Holoprosencephaly</t>
+  </si>
+  <si>
+    <t>568e87e022c1fc1c79ca1754</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>Unexplained skeletal dysplasia</t>
+  </si>
+  <si>
+    <t>5693952f22c1fc251660fb1e</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>Neurotransmitter disorders</t>
+  </si>
+  <si>
+    <t>56ba025922c1fc5025762b4e</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>Early onset familial premature ovarian insufficiency</t>
+  </si>
+  <si>
+    <t>575ed2398f62034208b69ee1</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>Hydrocephalus</t>
+  </si>
+  <si>
+    <t>5763f35c8f620350a22bccdf</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>Radial dysplasia</t>
+  </si>
+  <si>
+    <t>5763f4588f620350a199604e</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>Clefting</t>
   </si>
   <si>
-    <t>Early onset familial premature ovarian insufficiency</t>
+    <t>57acb8268f620364dc61afd3</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>Familial hidradenitis suppurativa</t>
   </si>
   <si>
-    <t>Holoprosencephaly</t>
-  </si>
-  <si>
-    <t>Hydrocephalus</t>
-  </si>
-  <si>
-    <t>Multiple endocrine tumours</t>
-  </si>
-  <si>
-    <t>Neurotransmitter disorders</t>
-  </si>
-  <si>
-    <t>Non-CF bronchiectasis</t>
-  </si>
-  <si>
-    <t>Radial dysplasia</t>
-  </si>
-  <si>
-    <t>Unexplained skeletal dysplasia</t>
-  </si>
-  <si>
-    <t>VACTERL-like phenotypes</t>
-  </si>
-  <si>
-    <t>57acb8268f620364dc61afd3</t>
-  </si>
-  <si>
-    <t>575ed2398f62034208b69ee1</t>
-  </si>
-  <si>
     <t>5885e9db8f620309044f8a0a</t>
   </si>
   <si>
-    <t>568e87e022c1fc1c79ca1754</t>
-  </si>
-  <si>
-    <t>5763f35c8f620350a22bccdf</t>
-  </si>
-  <si>
-    <t>553f94b4bb5a1616e5ed4595</t>
-  </si>
-  <si>
-    <t>56ba025922c1fc5025762b4e</t>
-  </si>
-  <si>
-    <t>553f94cabb5a1616e5ed45a2</t>
-  </si>
-  <si>
-    <t>5763f4588f620350a199604e</t>
-  </si>
-  <si>
-    <t>5693952f22c1fc251660fb1e</t>
-  </si>
-  <si>
-    <t>553f9598bb5a1616e5ed45ae</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>1.6</t>
+    <t>Vici Syndrome and other autophagy disorders</t>
+  </si>
+  <si>
+    <t>553f94b3bb5a1616e5ed4593</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>Hydroa vacciniforme</t>
+  </si>
+  <si>
+    <t>553f9599bb5a1616e5ed45b0</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Undiagnosed neurocutaneous disorders</t>
+  </si>
+  <si>
+    <t>5669854622c1fc3d5bbee17a</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>Familial disseminated superficial actinic porokeratosis</t>
+  </si>
+  <si>
+    <t>5763f6048f620350a1996052</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>Familial non syndromic congenital heart disease</t>
+  </si>
+  <si>
+    <t>583c128f8f62036f70db8d29</t>
+  </si>
+  <si>
+    <t>Idiopathic ventricular fibrillation</t>
+  </si>
+  <si>
+    <t>5885e8ca8f620309044f8a09</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>Ehlers-Danlos syndromes</t>
   </si>
   <si>
-    <t>Familial disseminated superficial actinic porokeratosis</t>
-  </si>
-  <si>
-    <t>Familial non syndromic congenital heart disease</t>
-  </si>
-  <si>
-    <t>Hydroa vacciniforme</t>
-  </si>
-  <si>
-    <t>Idiopathic ventricular fibrillation</t>
+    <t>588728f38f62030cf7152165</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.402</t>
   </si>
   <si>
     <t>Primary Membranoproliferative Glomerulonephritis</t>
   </si>
   <si>
-    <t>Undiagnosed neurocutaneous disorders</t>
-  </si>
-  <si>
-    <t>Vici Syndrome and other autophagy disorders</t>
-  </si>
-  <si>
-    <t>588728f38f62030cf7152165</t>
-  </si>
-  <si>
-    <t>5763f6048f620350a1996052</t>
-  </si>
-  <si>
-    <t>583c128f8f62036f70db8d29</t>
-  </si>
-  <si>
-    <t>553f9599bb5a1616e5ed45b0</t>
-  </si>
-  <si>
-    <t>5885e8ca8f620309044f8a09</t>
-  </si>
-  <si>
     <t>58c805938f6203413360f1cb</t>
   </si>
   <si>
-    <t>5669854622c1fc3d5bbee17a</t>
-  </si>
-  <si>
-    <t>553f94b3bb5a1616e5ed4593</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
     <t>0.14</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.42</t>
+    <t>Congenital myopathy</t>
+  </si>
+  <si>
+    <t>553f94b6bb5a1616e5ed459a</t>
+  </si>
+  <si>
+    <t>1.41</t>
   </si>
   <si>
     <t>A- or hypo-gammaglobulinaemia</t>
   </si>
   <si>
+    <t>553f9595bb5a1616e5ed45a8</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>Erythropoietic protoporphyria, mild variant</t>
+  </si>
+  <si>
+    <t>553f9599bb5a1616e5ed45af</t>
+  </si>
+  <si>
+    <t>Early onset dystonia</t>
+  </si>
+  <si>
+    <t>553f95c9bb5a1616e5ed45bf</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
     <t>Arthrogryposis</t>
   </si>
   <si>
+    <t>55b75d5b22c1fc05fd2345c9</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Familial or syndromic hypoparathyroidism</t>
+  </si>
+  <si>
+    <t>55bf826222c1fc0fe45530c1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Familial haematuria</t>
+  </si>
+  <si>
+    <t>55e01bb222c1fc6199b42904</t>
+  </si>
+  <si>
+    <t>Familial hypercholesterolaemia</t>
+  </si>
+  <si>
+    <t>561518be22c1fc212900fb84</t>
+  </si>
+  <si>
+    <t>Ectodermal dysplasia without a known gene mutation</t>
+  </si>
+  <si>
+    <t>561677af22c1fc212a6db65d</t>
+  </si>
+  <si>
+    <t>Palmoplantar keratoderma and erythrokeratodermas</t>
+  </si>
+  <si>
+    <t>562f5e7822c1fc582756e3bb</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Rare multisystem ciliopathy disorders</t>
+  </si>
+  <si>
+    <t>568ea01e22c1fc1c78b6715d</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>Cerebellar hypoplasia</t>
+  </si>
+  <si>
+    <t>568f871422c1fc1c79ca176d</t>
+  </si>
+  <si>
+    <t>Disorders of sex development</t>
+  </si>
+  <si>
+    <t>569380ac22c1fc251660faf8</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Posterior segment abnormalities</t>
+  </si>
+  <si>
+    <t>56e0238b22c1fc09c97a6e46</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
     <t>Beckwith-Wiedemann syndrome (BWS) and other congenital overgrowth disorders</t>
   </si>
   <si>
-    <t>Cerebellar hypoplasia</t>
+    <t>56fa8eb88f62030f36e3026b</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>Undiagnosed metabolic disorders</t>
+  </si>
+  <si>
+    <t>5763f1518f620350a22bccdb</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>Inherited bleeding disorders</t>
+  </si>
+  <si>
+    <t>5763f32a8f620350a22bccde</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>Neurofibromatosis Type 1</t>
+  </si>
+  <si>
+    <t>57c5b45b8f62030d5014a949</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Severe hypertriglyceridaemia</t>
+  </si>
+  <si>
+    <t>57eab3658f620356ef5e4010</t>
+  </si>
+  <si>
+    <t>Parkinson Disease and Complex Parkinsonism</t>
+  </si>
+  <si>
+    <t>58078e6e8f62030e233a8157</t>
   </si>
   <si>
     <t>Congenital disorders of glycosylation</t>
   </si>
   <si>
-    <t>Congenital myopathy</t>
+    <t>58346b8b8f62036225ca8a7d</t>
   </si>
   <si>
     <t>Cytopaenias and congenital anaemias</t>
   </si>
   <si>
-    <t>Disorders of sex development</t>
-  </si>
-  <si>
-    <t>Early onset dystonia</t>
-  </si>
-  <si>
-    <t>Ectodermal dysplasia without a known gene mutation</t>
-  </si>
-  <si>
-    <t>Erythropoietic protoporphyria, mild variant</t>
-  </si>
-  <si>
-    <t>Familial haematuria</t>
-  </si>
-  <si>
-    <t>Familial hypercholesterolaemia</t>
-  </si>
-  <si>
-    <t>Familial or syndromic hypoparathyroidism</t>
-  </si>
-  <si>
-    <t>Inherited bleeding disorders</t>
-  </si>
-  <si>
-    <t>Neurofibromatosis Type 1</t>
-  </si>
-  <si>
-    <t>Palmoplantar keratoderma and erythrokeratodermas</t>
-  </si>
-  <si>
-    <t>Parkinson Disease and Complex Parkinsonism</t>
-  </si>
-  <si>
-    <t>Posterior segment abnormalities</t>
-  </si>
-  <si>
-    <t>Rare multisystem ciliopathy disorders</t>
-  </si>
-  <si>
-    <t>Severe hypertriglyceridaemia</t>
-  </si>
-  <si>
-    <t>Undiagnosed metabolic disorders</t>
-  </si>
-  <si>
-    <t>553f9595bb5a1616e5ed45a8</t>
-  </si>
-  <si>
-    <t>55b75d5b22c1fc05fd2345c9</t>
-  </si>
-  <si>
-    <t>56fa8eb88f62030f36e3026b</t>
-  </si>
-  <si>
-    <t>568f871422c1fc1c79ca176d</t>
-  </si>
-  <si>
-    <t>58346b8b8f62036225ca8a7d</t>
-  </si>
-  <si>
-    <t>553f94b6bb5a1616e5ed459a</t>
-  </si>
-  <si>
     <t>58a70e858f62037e8779b2e8</t>
   </si>
   <si>
-    <t>569380ac22c1fc251660faf8</t>
-  </si>
-  <si>
-    <t>553f95c9bb5a1616e5ed45bf</t>
-  </si>
-  <si>
-    <t>561677af22c1fc212a6db65d</t>
-  </si>
-  <si>
-    <t>553f9599bb5a1616e5ed45af</t>
-  </si>
-  <si>
-    <t>55e01bb222c1fc6199b42904</t>
-  </si>
-  <si>
-    <t>561518be22c1fc212900fb84</t>
-  </si>
-  <si>
-    <t>55bf826222c1fc0fe45530c1</t>
-  </si>
-  <si>
-    <t>5763f32a8f620350a22bccde</t>
-  </si>
-  <si>
-    <t>57c5b45b8f62030d5014a949</t>
-  </si>
-  <si>
-    <t>562f5e7822c1fc582756e3bb</t>
-  </si>
-  <si>
-    <t>58078e6e8f62030e233a8157</t>
-  </si>
-  <si>
-    <t>56e0238b22c1fc09c97a6e46</t>
-  </si>
-  <si>
-    <t>568ea01e22c1fc1c78b6715d</t>
-  </si>
-  <si>
-    <t>57eab3658f620356ef5e4010</t>
-  </si>
-  <si>
-    <t>5763f1518f620350a22bccdb</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
     <t>1.32</t>
   </si>
   <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
     <t>1.33</t>
   </si>
   <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
     <t>Prev_Panel_Name</t>
   </si>
   <si>
@@ -507,121 +507,250 @@
     <t>Gene_Status</t>
   </si>
   <si>
+    <t>AGXT</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>APRT</t>
+  </si>
+  <si>
+    <t>ATP6V0A4</t>
+  </si>
+  <si>
+    <t>ATP6V1B1</t>
+  </si>
+  <si>
+    <t>BSND</t>
+  </si>
+  <si>
+    <t>CA2</t>
+  </si>
+  <si>
+    <t>CASR</t>
+  </si>
+  <si>
+    <t>CLCN5</t>
+  </si>
+  <si>
+    <t>CLCNKB</t>
+  </si>
+  <si>
+    <t>CLDN16</t>
+  </si>
+  <si>
+    <t>CLDN19</t>
+  </si>
+  <si>
+    <t>CYP24A1</t>
+  </si>
+  <si>
+    <t>GRHPR</t>
+  </si>
+  <si>
+    <t>HOGA1</t>
+  </si>
+  <si>
+    <t>KCNJ1</t>
+  </si>
+  <si>
+    <t>OCRL</t>
+  </si>
+  <si>
+    <t>SLC12A1</t>
+  </si>
+  <si>
+    <t>SLC34A1</t>
+  </si>
+  <si>
+    <t>SLC34A3</t>
+  </si>
+  <si>
+    <t>SLC3A1</t>
+  </si>
+  <si>
+    <t>SLC4A1</t>
+  </si>
+  <si>
+    <t>SLC7A9</t>
+  </si>
+  <si>
+    <t>SLC9A3R1</t>
+  </si>
+  <si>
+    <t>TRPM6</t>
+  </si>
+  <si>
+    <t>XDH</t>
+  </si>
+  <si>
+    <t>ACVRL1</t>
+  </si>
+  <si>
+    <t>BMPR2</t>
+  </si>
+  <si>
+    <t>EIF2AK4</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>KCNK3</t>
+  </si>
+  <si>
+    <t>SMAD9</t>
+  </si>
+  <si>
+    <t>TBX4</t>
+  </si>
+  <si>
     <t>XPA</t>
   </si>
   <si>
     <t>XPC</t>
   </si>
   <si>
-    <t>ACVRL1</t>
-  </si>
-  <si>
-    <t>BMPR2</t>
-  </si>
-  <si>
-    <t>EIF2AK4</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>KCNK3</t>
-  </si>
-  <si>
-    <t>SMAD9</t>
-  </si>
-  <si>
-    <t>TBX4</t>
-  </si>
-  <si>
-    <t>AGXT</t>
-  </si>
-  <si>
-    <t>APRT</t>
-  </si>
-  <si>
-    <t>ATP6V0A4</t>
-  </si>
-  <si>
-    <t>ATP6V1B1</t>
-  </si>
-  <si>
-    <t>BSND</t>
-  </si>
-  <si>
-    <t>CA2</t>
-  </si>
-  <si>
-    <t>CASR</t>
-  </si>
-  <si>
-    <t>CLCN5</t>
-  </si>
-  <si>
-    <t>CLCNKB</t>
-  </si>
-  <si>
-    <t>CLDN16</t>
-  </si>
-  <si>
-    <t>CLDN19</t>
-  </si>
-  <si>
-    <t>CYP24A1</t>
-  </si>
-  <si>
-    <t>GRHPR</t>
-  </si>
-  <si>
-    <t>HOGA1</t>
-  </si>
-  <si>
-    <t>KCNJ1</t>
-  </si>
-  <si>
-    <t>OCRL</t>
-  </si>
-  <si>
-    <t>SLC12A1</t>
-  </si>
-  <si>
-    <t>SLC34A1</t>
-  </si>
-  <si>
-    <t>SLC34A3</t>
-  </si>
-  <si>
-    <t>SLC3A1</t>
-  </si>
-  <si>
-    <t>SLC4A1</t>
-  </si>
-  <si>
-    <t>SLC7A9</t>
-  </si>
-  <si>
-    <t>SLC9A3R1</t>
-  </si>
-  <si>
-    <t>TRPM6</t>
-  </si>
-  <si>
-    <t>XDH</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Prev_Gene_Status</t>
-  </si>
-  <si>
-    <t>Curr_Gene_Status</t>
+    <t>Gene_Name</t>
+  </si>
+  <si>
+    <t>Status_x</t>
+  </si>
+  <si>
+    <t>Status_y</t>
+  </si>
+  <si>
+    <t>CDKN1B</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>MEN1</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>CACNA1S</t>
+  </si>
+  <si>
+    <t>COL12A1</t>
+  </si>
+  <si>
+    <t>SCNN1A</t>
+  </si>
+  <si>
+    <t>SCNN1B</t>
+  </si>
+  <si>
+    <t>TBCE</t>
+  </si>
+  <si>
+    <t>LIPA</t>
+  </si>
+  <si>
+    <t>CDON</t>
+  </si>
+  <si>
+    <t>SHH</t>
+  </si>
+  <si>
+    <t>SIX3</t>
+  </si>
+  <si>
+    <t>ZIC2</t>
+  </si>
+  <si>
+    <t>DISP1</t>
+  </si>
+  <si>
+    <t>FGF8</t>
+  </si>
+  <si>
+    <t>FGFR1</t>
+  </si>
+  <si>
+    <t>TOE1</t>
+  </si>
+  <si>
+    <t>IFT43</t>
+  </si>
+  <si>
+    <t>DBH</t>
+  </si>
+  <si>
+    <t>DDC</t>
+  </si>
+  <si>
+    <t>DHFR</t>
+  </si>
+  <si>
+    <t>DNAJC12</t>
+  </si>
+  <si>
+    <t>FOLR1</t>
+  </si>
+  <si>
+    <t>GCH1</t>
+  </si>
+  <si>
+    <t>MAOA</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>QDPR</t>
+  </si>
+  <si>
+    <t>SLC18A2</t>
+  </si>
+  <si>
+    <t>SLC6A3</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>TH</t>
   </si>
   <si>
     <t>CDKN1C</t>
   </si>
   <si>
-    <t>TOE1</t>
+    <t>BMP15</t>
+  </si>
+  <si>
+    <t>FSHR</t>
+  </si>
+  <si>
+    <t>NOBOX</t>
+  </si>
+  <si>
+    <t>FOXL2</t>
+  </si>
+  <si>
+    <t>HFM1</t>
+  </si>
+  <si>
+    <t>MCM8</t>
+  </si>
+  <si>
+    <t>MCM9</t>
+  </si>
+  <si>
+    <t>NR5A1</t>
+  </si>
+  <si>
+    <t>STAG3</t>
+  </si>
+  <si>
+    <t>ADAMTS13</t>
+  </si>
+  <si>
+    <t>NSD1</t>
   </si>
   <si>
     <t>FLNA</t>
@@ -645,37 +774,7 @@
     <t>SLC39A8</t>
   </si>
   <si>
-    <t>CACNA1S</t>
-  </si>
-  <si>
-    <t>COL12A1</t>
-  </si>
-  <si>
-    <t>BMP15</t>
-  </si>
-  <si>
-    <t>FOXL2</t>
-  </si>
-  <si>
-    <t>FSHR</t>
-  </si>
-  <si>
-    <t>HFM1</t>
-  </si>
-  <si>
-    <t>MCM8</t>
-  </si>
-  <si>
-    <t>MCM9</t>
-  </si>
-  <si>
-    <t>NOBOX</t>
-  </si>
-  <si>
-    <t>NR5A1</t>
-  </si>
-  <si>
-    <t>STAG3</t>
+    <t>CFC1</t>
   </si>
   <si>
     <t>NCSTN</t>
@@ -687,97 +786,31 @@
     <t>PSENEN</t>
   </si>
   <si>
-    <t>LIPA</t>
-  </si>
-  <si>
-    <t>TBCE</t>
-  </si>
-  <si>
-    <t>CDON</t>
-  </si>
-  <si>
-    <t>DISP1</t>
-  </si>
-  <si>
-    <t>FGF8</t>
-  </si>
-  <si>
-    <t>FGFR1</t>
-  </si>
-  <si>
-    <t>SHH</t>
-  </si>
-  <si>
-    <t>SIX3</t>
-  </si>
-  <si>
-    <t>ZIC2</t>
-  </si>
-  <si>
-    <t>NSD1</t>
-  </si>
-  <si>
-    <t>ADAMTS13</t>
-  </si>
-  <si>
-    <t>CDKN1B</t>
-  </si>
-  <si>
-    <t>MEN1</t>
-  </si>
-  <si>
-    <t>DBH</t>
-  </si>
-  <si>
-    <t>DDC</t>
-  </si>
-  <si>
-    <t>DHFR</t>
-  </si>
-  <si>
-    <t>DNAJC12</t>
-  </si>
-  <si>
-    <t>FOLR1</t>
-  </si>
-  <si>
-    <t>GCH1</t>
-  </si>
-  <si>
-    <t>MAOA</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
-    <t>QDPR</t>
-  </si>
-  <si>
-    <t>SLC18A2</t>
-  </si>
-  <si>
-    <t>SLC6A3</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>SCNN1A</t>
-  </si>
-  <si>
-    <t>SCNN1B</t>
-  </si>
-  <si>
-    <t>IFT43</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Amber</t>
+    <t>PHOX2B</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>ZEB2</t>
+  </si>
+  <si>
+    <t>CFH</t>
+  </si>
+  <si>
+    <t>CFHR1</t>
+  </si>
+  <si>
+    <t>CFHR2</t>
+  </si>
+  <si>
+    <t>CFHR5</t>
+  </si>
+  <si>
+    <t>CFI</t>
+  </si>
+  <si>
+    <t>SNAP29</t>
   </si>
   <si>
     <t>BIN1</t>
@@ -792,40 +825,40 @@
     <t>Curr_MOI</t>
   </si>
   <si>
+    <t>PRKRA</t>
+  </si>
+  <si>
+    <t>monoallelic_and_biallelic</t>
+  </si>
+  <si>
+    <t>biallelic</t>
+  </si>
+  <si>
+    <t>EDAR</t>
+  </si>
+  <si>
+    <t>BOTH monoallelic and biallelic, autosomal or pseudoautosomal (but BIALLELIC mutations cause a more SEVERE disease form), autosomal or pseudoautosomal</t>
+  </si>
+  <si>
+    <t>monoallelic_and_more_severe_biallelic</t>
+  </si>
+  <si>
+    <t>EDARADD</t>
+  </si>
+  <si>
     <t>WT1</t>
   </si>
   <si>
-    <t>PRKRA</t>
-  </si>
-  <si>
-    <t>EDAR</t>
-  </si>
-  <si>
-    <t>EDARADD</t>
+    <t>Other - please specifiy in evaluation comments</t>
+  </si>
+  <si>
+    <t>monoallelic_not_imprinted</t>
   </si>
   <si>
     <t>FANCB</t>
   </si>
   <si>
-    <t>Other - please specifiy in evaluation comments</t>
-  </si>
-  <si>
-    <t>monoallelic_and_biallelic</t>
-  </si>
-  <si>
-    <t>BOTH monoallelic and biallelic, autosomal or pseudoautosomal (but BIALLELIC mutations cause a more SEVERE disease form), autosomal or pseudoautosomal</t>
-  </si>
-  <si>
     <t>xlinked_biallelic</t>
-  </si>
-  <si>
-    <t>monoallelic_not_imprinted</t>
-  </si>
-  <si>
-    <t>biallelic</t>
-  </si>
-  <si>
-    <t>monoallelic_and_more_severe_biallelic</t>
   </si>
   <si>
     <t>xlinked_monoallelic</t>
@@ -835,26 +868,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -869,35 +898,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1185,12 +1205,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1208,46 +1234,52 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1257,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -1274,1212 +1306,1448 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
         <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="G53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
         <v>63</v>
       </c>
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -2489,16 +2757,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -2506,62 +2774,68 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -2571,16 +2845,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -2588,131 +2862,137 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2730,46 +3010,52 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2787,18 +3073,18 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2806,27 +3092,33 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -2847,167 +3139,173 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -3028,139 +3326,145 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -3181,172 +3485,172 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>126</v>
@@ -3355,147 +3659,153 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -3516,7 +3826,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -3525,24 +3835,30 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -3566,10 +3882,10 @@
         <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3577,444 +3893,444 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
         <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
         <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
         <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
         <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
         <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
         <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
         <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
         <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
         <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
         <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
         <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
         <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -4022,30 +4338,36 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -4063,33 +4385,33 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>